--- a/documentacao/Documentação/Backlog/Sprint-Backlog.xlsx
+++ b/documentacao/Documentação/Backlog/Sprint-Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\Documentação\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Plant.ai\documentacao\Documentação\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="106">
   <si>
     <t>RA</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Banca</t>
   </si>
   <si>
-    <t>Ajustar o Site Institucional</t>
-  </si>
-  <si>
     <t>Dashboard de exibição dos gráficos (parte1)</t>
   </si>
   <si>
@@ -283,6 +280,69 @@
   </si>
   <si>
     <t>RP17</t>
+  </si>
+  <si>
+    <t>Fazer Manual de Instalação</t>
+  </si>
+  <si>
+    <t>Planilha de Homologação</t>
+  </si>
+  <si>
+    <t>Teste integrado do Analytics</t>
+  </si>
+  <si>
+    <t>Teste Integrado da Solução de IoT</t>
+  </si>
+  <si>
+    <t>Documento Final do Projeto</t>
+  </si>
+  <si>
+    <t>Slide da apresentação(parte2)</t>
+  </si>
+  <si>
+    <t>Mapeamento das tabelas/entidades em classes Javascript</t>
+  </si>
+  <si>
+    <t>Prévia (Demonstração da Solução + Apresentação)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cadastro Free e Premium na Nuvem</t>
+  </si>
+  <si>
+    <t>Site Institucional na Nuvem</t>
+  </si>
+  <si>
+    <t>Fazer Modelagem Conceitual do Banco de Dados</t>
+  </si>
+  <si>
+    <t>Dashboard de exibição dos gráficos (parte2)</t>
+  </si>
+  <si>
+    <t>Ajustar o Site Institucional (parte 2)</t>
+  </si>
+  <si>
+    <t>Ajustar o Site Institucional (parte1)</t>
+  </si>
+  <si>
+    <t>RS15</t>
+  </si>
+  <si>
+    <t>RS16</t>
+  </si>
+  <si>
+    <t>RP18</t>
+  </si>
+  <si>
+    <t>RP19</t>
+  </si>
+  <si>
+    <t>RP20</t>
+  </si>
+  <si>
+    <t>RP21</t>
   </si>
 </sst>
 </file>
@@ -378,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +457,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -787,7 +853,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,21 +944,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,15 +954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -920,22 +962,52 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Ênfase6" xfId="1" builtinId="51"/>
@@ -1232,7 +1304,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="6"/>
@@ -1245,7 +1317,7 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1465,12 +1537,12 @@
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="29" t="s">
         <v>64</v>
       </c>
@@ -1621,12 +1693,12 @@
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="29" t="s">
         <v>64</v>
       </c>
@@ -1784,15 +1856,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="74.5703125" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
@@ -1801,7 +1873,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="48" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="6"/>
@@ -1811,7 +1883,7 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -1826,10 +1898,10 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="15"/>
@@ -1891,30 +1963,30 @@
       <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="29" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="30">
-        <f>SUM(D12:D24)</f>
-        <v>136</v>
+        <f>SUM(D12:D28)</f>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +2029,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
@@ -2008,8 +2080,8 @@
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>73</v>
+      <c r="B19" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>14</v>
@@ -2023,12 +2095,12 @@
     </row>
     <row r="20" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="9">
@@ -2040,10 +2112,10 @@
     </row>
     <row r="21" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>14</v>
@@ -2054,14 +2126,14 @@
       <c r="E21" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="57"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -2075,10 +2147,10 @@
     </row>
     <row r="23" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2090,244 +2162,478 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9">
+        <v>21</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9">
+        <v>21</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="9">
+        <v>21</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="9">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="23">
+        <v>21</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="39"/>
+      <c r="B31" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="30">
+        <f>SUM(D32:D46)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="30">
-        <f>SUM(D28:D35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="C32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="9">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B33" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9">
+        <v>21</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="B34" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="9">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B35" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="9">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="B36" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9">
+        <v>21</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="B37" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9">
+        <v>13</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="B38" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="9">
+        <v>21</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" s="30">
-        <f>SUM(D39:D46)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9">
+        <v>21</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>78</v>
+      <c r="B40" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="D40" s="9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="9">
+        <v>13</v>
+      </c>
       <c r="E41" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="9">
+        <v>13</v>
+      </c>
       <c r="E42" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9">
+        <v>13</v>
+      </c>
       <c r="E43" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="9">
+        <v>5</v>
+      </c>
       <c r="E44" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="9">
+        <v>13</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="43"/>
+      <c r="B50" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="30">
+        <f>SUM(D50:D57)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="9">
+        <v>8</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+    <row r="52" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="57" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="11" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="58" spans="1:7" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
